--- a/post11_data/Book1.xlsx
+++ b/post11_data/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredkramer/Documents/python/hummingbird/post11_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD1D7D6-8F4B-3A4E-8976-BB2A275344C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B29D5FC-A822-2F43-9100-A74E3D6FE40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="760" windowWidth="28040" windowHeight="17380" xr2:uid="{CD20C378-74ED-CA42-8937-EFD07FD5EDA8}"/>
   </bookViews>
@@ -147,7 +147,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -162,6 +162,7 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -498,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E7F9E6-911D-7041-9043-8B0EB4E0330C}">
-  <dimension ref="B2:N15"/>
+  <dimension ref="B2:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G13" sqref="G3:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,7 +567,7 @@
         <v>7.6154037468653168</v>
       </c>
       <c r="I3" s="9">
-        <f>H3*C3*K3/1000000</f>
+        <f t="shared" ref="I3:I13" si="1">H3*C3*K3/1000000</f>
         <v>0.80018474099999981</v>
       </c>
       <c r="J3" s="8"/>
@@ -592,7 +593,7 @@
         <v>11.59</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" ref="G4:G13" si="1">E4/C4</f>
+        <f t="shared" ref="G4:G13" si="2">E4/C4</f>
         <v>1.2087041052867717</v>
       </c>
       <c r="H4" s="4">
@@ -600,7 +601,7 @@
         <v>5.7511194197263187</v>
       </c>
       <c r="I4" s="9">
-        <f>H4*C4*K4/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.66911456400000058</v>
       </c>
       <c r="J4" s="8"/>
@@ -626,7 +627,7 @@
         <v>16.28</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2266242885653043</v>
       </c>
       <c r="H5" s="4">
@@ -634,7 +635,7 @@
         <v>5.6505565821568462</v>
       </c>
       <c r="I5" s="9">
-        <f>H5*C5*K5/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.71095133399999966</v>
       </c>
       <c r="J5" s="8"/>
@@ -660,7 +661,7 @@
         <v>17.850000000000001</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.245254414622168</v>
       </c>
       <c r="H6" s="4">
@@ -668,7 +669,7 @@
         <v>26.122208698994299</v>
       </c>
       <c r="I6" s="9">
-        <f>H6*C6*K6/1000000</f>
+        <f t="shared" si="1"/>
         <v>3.6701442000000002</v>
       </c>
       <c r="J6" s="8"/>
@@ -694,7 +695,7 @@
         <v>30.24</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2551290196962552</v>
       </c>
       <c r="H7" s="4">
@@ -702,7 +703,7 @@
         <v>23.734898444385237</v>
       </c>
       <c r="I7" s="9">
-        <f>H7*C7*K7/1000000</f>
+        <f t="shared" si="1"/>
         <v>3.5899532330000006</v>
       </c>
       <c r="J7" s="8"/>
@@ -728,7 +729,7 @@
         <v>24.33</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.252805996271354</v>
       </c>
       <c r="H8" s="4">
@@ -736,7 +737,7 @@
         <v>8.2692301107179542</v>
       </c>
       <c r="I8" s="9">
-        <f>H8*C8*K8/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.3040410500000001</v>
       </c>
       <c r="J8" s="8"/>
@@ -762,7 +763,7 @@
         <v>19.440000000000001</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2485400890675631</v>
       </c>
       <c r="H9" s="4">
@@ -770,7 +771,7 @@
         <v>7.7283806685265679</v>
       </c>
       <c r="I9" s="9">
-        <f>H9*C9*K9/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.382591071999999</v>
       </c>
       <c r="J9" s="8"/>
@@ -796,7 +797,7 @@
         <v>24.22</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2434885723562545</v>
       </c>
       <c r="H10" s="4">
@@ -804,7 +805,7 @@
         <v>59.642706777531522</v>
       </c>
       <c r="I10" s="9">
-        <f>H10*C10*K10/1000000</f>
+        <f t="shared" si="1"/>
         <v>13.097222302</v>
       </c>
       <c r="J10" s="8"/>
@@ -830,7 +831,7 @@
         <v>19.670000000000002</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2693854026090867</v>
       </c>
       <c r="H11" s="4">
@@ -838,7 +839,7 @@
         <v>15.231189130679265</v>
       </c>
       <c r="I11" s="9">
-        <f>H11*C11*K11/1000000</f>
+        <f t="shared" si="1"/>
         <v>3.2504576100000007</v>
       </c>
       <c r="J11" s="8"/>
@@ -864,7 +865,7 @@
         <v>17.75</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2240212342402124</v>
       </c>
       <c r="H12" s="4">
@@ -872,7 +873,7 @@
         <v>26.363623092236235</v>
       </c>
       <c r="I12" s="9">
-        <f>H12*C12*K12/1000000</f>
+        <f t="shared" si="1"/>
         <v>7.3897762800000013</v>
       </c>
       <c r="J12" s="8"/>
@@ -886,28 +887,28 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>9344.4</v>
+        <v>9872.1</v>
       </c>
       <c r="D13" s="4">
-        <v>43.89</v>
+        <v>53.37</v>
       </c>
       <c r="E13" s="6">
-        <v>11128.4</v>
+        <v>11893.1</v>
       </c>
       <c r="F13" s="8">
-        <v>22.2</v>
+        <v>25.22</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="1"/>
-        <v>1.1909164847395231</v>
+        <f t="shared" si="2"/>
+        <v>1.2047183476666565</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="0"/>
-        <v>17.451654038782589</v>
+        <v>22.987003271846916</v>
       </c>
       <c r="I13" s="9">
-        <f>H13*C13*K13/1000000</f>
-        <v>4.8922570800000011</v>
+        <f t="shared" si="1"/>
+        <v>6.8078998499999974</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="1">
@@ -918,6 +919,12 @@
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M15" s="2"/>
       <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I16" s="10">
+        <f>SUM(I3:I13)</f>
+        <v>42.672336236</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
